--- a/data/processed/anki_data_comprehensive.xlsx
+++ b/data/processed/anki_data_comprehensive.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fridt\OneDrive\Desktop\Arbeit\anki\r_anki\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3BFB55-4523-4760-881C-D88A3B75383E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A87033C-CEC0-4CA6-AC19-D391796B43EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2187,9 +2187,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC821"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AU16" sqref="AU16"/>
+    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A771" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BE809" sqref="BE809"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2204,41 +2204,42 @@
     <col min="8" max="8" width="16.59765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.73046875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.86328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.3984375" customWidth="1"/>
-    <col min="23" max="23" width="12.86328125" customWidth="1"/>
-    <col min="24" max="24" width="42.59765625" customWidth="1"/>
-    <col min="25" max="25" width="20.73046875" customWidth="1"/>
-    <col min="26" max="26" width="20.3984375" customWidth="1"/>
-    <col min="27" max="27" width="27.59765625" customWidth="1"/>
-    <col min="28" max="28" width="37" customWidth="1"/>
-    <col min="29" max="29" width="51.1328125" customWidth="1"/>
-    <col min="30" max="30" width="34.1328125" customWidth="1"/>
-    <col min="31" max="31" width="33.265625" customWidth="1"/>
-    <col min="32" max="32" width="29.1328125" customWidth="1"/>
-    <col min="33" max="33" width="31.265625" customWidth="1"/>
-    <col min="34" max="34" width="40.1328125" customWidth="1"/>
-    <col min="35" max="35" width="44.73046875" customWidth="1"/>
-    <col min="36" max="36" width="32.73046875" customWidth="1"/>
-    <col min="37" max="37" width="45" customWidth="1"/>
-    <col min="38" max="38" width="27.265625" customWidth="1"/>
-    <col min="39" max="39" width="20.3984375" customWidth="1"/>
-    <col min="40" max="40" width="16.265625" customWidth="1"/>
-    <col min="41" max="41" width="16.86328125" customWidth="1"/>
-    <col min="42" max="42" width="18.1328125" customWidth="1"/>
-    <col min="43" max="43" width="38.59765625" customWidth="1"/>
-    <col min="44" max="44" width="61.1328125" customWidth="1"/>
-    <col min="50" max="50" width="16.1328125" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.46484375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="16.19921875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="19.796875" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="11.1328125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="11.265625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="12.1328125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="19.73046875" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="18.265625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="13.265625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="17.86328125" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="17.3984375" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="12.86328125" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="42.59765625" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="20.73046875" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="20.3984375" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="27.59765625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="37" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="51.1328125" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="34.1328125" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="33.265625" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="29.1328125" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="31.265625" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="40.1328125" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="44.73046875" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="32.73046875" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="45" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="27.265625" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="20.3984375" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="16.265625" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="16.86328125" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="18.1328125" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="38.59765625" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="61.1328125" hidden="1" customWidth="1"/>
+    <col min="45" max="49" width="0" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="16.1328125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.45">
@@ -18213,7 +18214,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="161" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>1</v>
       </c>
@@ -18315,7 +18316,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="162" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>1</v>
       </c>
@@ -18417,7 +18418,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="163" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>1</v>
       </c>
@@ -18512,7 +18513,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="164" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>0</v>
       </c>
@@ -18614,7 +18615,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="165" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>1</v>
       </c>
@@ -18716,7 +18717,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="166" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>1</v>
       </c>
@@ -18818,7 +18819,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="167" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>1</v>
       </c>
@@ -18913,7 +18914,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="168" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>1</v>
       </c>
@@ -19015,7 +19016,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="169" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>1</v>
       </c>
@@ -19117,7 +19118,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="170" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>1</v>
       </c>
@@ -19219,7 +19220,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="171" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>0</v>
       </c>
@@ -19321,7 +19322,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="172" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>1</v>
       </c>
@@ -19423,7 +19424,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="173" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>1</v>
       </c>
@@ -19525,7 +19526,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="174" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>1</v>
       </c>
@@ -19627,7 +19628,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="175" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>1</v>
       </c>
@@ -19728,8 +19729,12 @@
       <c r="BB175">
         <v>29</v>
       </c>
+      <c r="BC175">
+        <f>SUM(A1:A188)</f>
+        <v>166</v>
+      </c>
     </row>
-    <row r="176" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>1</v>
       </c>
@@ -19830,6 +19835,10 @@
       <c r="BB176">
         <v>29</v>
       </c>
+      <c r="BC176">
+        <f>AVERAGE(A2:A189)</f>
+        <v>0.89784946236559138</v>
+      </c>
     </row>
     <row r="177" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A177">
@@ -114148,7 +114157,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="817" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="817" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A817">
         <v>1</v>
       </c>
@@ -114282,7 +114291,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="818" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="818" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A818">
         <v>1</v>
       </c>
@@ -114419,7 +114428,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="819" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="819" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A819">
         <v>1</v>
       </c>
@@ -114560,7 +114569,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="820" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="820" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A820">
         <v>1</v>
       </c>
@@ -114695,7 +114704,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="821" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="821" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A821">
         <v>1</v>
       </c>
@@ -114837,6 +114846,10 @@
       </c>
       <c r="BB821">
         <v>29</v>
+      </c>
+      <c r="BC821">
+        <f>AVERAGE(A612:A821)</f>
+        <v>0.919047619047619</v>
       </c>
     </row>
   </sheetData>
